--- a/spliced/walkingToRunning/2023-03-26_17-11-18/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_17-11-18/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.217567012860227</v>
+        <v>-0.7247905336188185</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.8785987887862</v>
+        <v>-24.30215097461226</v>
       </c>
       <c r="E2" t="n">
-        <v>2.25199632955022</v>
+        <v>-0.4334598116620501</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8973521590232849</v>
+        <v>-1.109872460365295</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1004677563905716</v>
+        <v>1.229648113250732</v>
       </c>
       <c r="H2" t="n">
-        <v>1.17305588722229</v>
+        <v>2.535529136657715</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9202353192504198</v>
+        <v>0.9856911530861703</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.56062749151649</v>
+        <v>-27.7952582342386</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.717396190180546</v>
+        <v>-10.58349611914382</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6182528734207153</v>
+        <v>-0.0105194868519902</v>
       </c>
       <c r="G3" t="n">
-        <v>1.669069647789002</v>
+        <v>0.2277668565511703</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8818392157554626</v>
+        <v>1.795702934265137</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.59089219358541</v>
+        <v>-1.217567012860227</v>
       </c>
       <c r="D4" t="n">
-        <v>-11.35514022330562</v>
+        <v>-15.8785987887862</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3842343388224623</v>
+        <v>2.25199632955022</v>
       </c>
       <c r="F4" t="n">
-        <v>1.658749938011169</v>
+        <v>-0.8973521590232849</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.585313200950623</v>
+        <v>0.1004677563905716</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.374025344848633</v>
+        <v>1.17305588722229</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.46794862013592</v>
+        <v>0.9202353192504198</v>
       </c>
       <c r="D5" t="n">
-        <v>-12.58473284569012</v>
+        <v>-13.56062749151649</v>
       </c>
       <c r="E5" t="n">
-        <v>5.044853869274501</v>
+        <v>-2.717396190180546</v>
       </c>
       <c r="F5" t="n">
-        <v>2.416685581207275</v>
+        <v>-0.6182528734207153</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.322476148605347</v>
+        <v>1.669069647789002</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.666474342346191</v>
+        <v>-0.8818392157554626</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.344646702151348</v>
+        <v>11.59089219358541</v>
       </c>
       <c r="D6" t="n">
-        <v>-15.18862899802845</v>
+        <v>-11.35514022330562</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.453918620679495</v>
+        <v>-0.3842343388224623</v>
       </c>
       <c r="F6" t="n">
-        <v>1.654488801956177</v>
+        <v>1.658749938011169</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.7259281873703</v>
+        <v>-1.585313200950623</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.852646350860596</v>
+        <v>-3.374025344848633</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.965254491602879</v>
+        <v>22.46794862013592</v>
       </c>
       <c r="D7" t="n">
-        <v>-16.62569452319625</v>
+        <v>-12.58473284569012</v>
       </c>
       <c r="E7" t="n">
-        <v>4.355243773150008</v>
+        <v>5.044853869274501</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.016163110733032</v>
+        <v>2.416685581207275</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.968842506408691</v>
+        <v>-2.322476148605347</v>
       </c>
       <c r="H7" t="n">
-        <v>3.157110929489136</v>
+        <v>-5.666474342346191</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.611347477816996</v>
+        <v>3.344646702151348</v>
       </c>
       <c r="D8" t="n">
-        <v>-15.73287558132374</v>
+        <v>-15.18862899802845</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8439290142623932</v>
+        <v>-5.453918620679495</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.865745544433594</v>
+        <v>1.654488801956177</v>
       </c>
       <c r="G8" t="n">
-        <v>2.865894317626953</v>
+        <v>-1.7259281873703</v>
       </c>
       <c r="H8" t="n">
-        <v>8.381167411804199</v>
+        <v>-6.852646350860596</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.01500372914868</v>
+        <v>-2.965254491602879</v>
       </c>
       <c r="D9" t="n">
-        <v>-25.76902237164192</v>
+        <v>-16.62569452319625</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.39586599902989</v>
+        <v>4.355243773150008</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1431449055671692</v>
+        <v>-3.016163110733032</v>
       </c>
       <c r="G9" t="n">
-        <v>12.14008617401123</v>
+        <v>-3.968842506408691</v>
       </c>
       <c r="H9" t="n">
-        <v>1.953362107276917</v>
+        <v>3.157110929489136</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.75571148212126</v>
+        <v>3.611347477816996</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.33359923729541</v>
+        <v>-15.73287558132374</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1073646178611298</v>
+        <v>-0.8439290142623932</v>
       </c>
       <c r="F10" t="n">
-        <v>4.818324089050293</v>
+        <v>-5.865745544433594</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.334262371063232</v>
+        <v>2.865894317626953</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.150319814682007</v>
+        <v>8.381167411804199</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39.60853858812318</v>
+        <v>-2.01500372914868</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.04104654887719</v>
+        <v>-25.76902237164192</v>
       </c>
       <c r="E11" t="n">
-        <v>25.44283379887685</v>
+        <v>-10.39586599902989</v>
       </c>
       <c r="F11" t="n">
-        <v>9.644504547119141</v>
+        <v>-0.1431449055671692</v>
       </c>
       <c r="G11" t="n">
-        <v>3.98388934135437</v>
+        <v>12.14008617401123</v>
       </c>
       <c r="H11" t="n">
-        <v>0.539756178855896</v>
+        <v>1.953362107276917</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-21.39290519578826</v>
+        <v>11.75571148212126</v>
       </c>
       <c r="D12" t="n">
-        <v>-25.75901896854879</v>
+        <v>-16.33359923729541</v>
       </c>
       <c r="E12" t="n">
-        <v>6.399868327485425</v>
+        <v>0.1073646178611298</v>
       </c>
       <c r="F12" t="n">
-        <v>3.38767409324646</v>
+        <v>4.818324089050293</v>
       </c>
       <c r="G12" t="n">
-        <v>3.137536764144897</v>
+        <v>-6.334262371063232</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.873384952545166</v>
+        <v>-3.150319814682007</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-34.85155020945177</v>
+        <v>39.60853858812318</v>
       </c>
       <c r="D13" t="n">
-        <v>-10.35765630959052</v>
+        <v>-45.04104654887719</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.708384362903586</v>
+        <v>25.44283379887685</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.203151226043701</v>
+        <v>9.644504547119141</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9888983368873596</v>
+        <v>3.98388934135437</v>
       </c>
       <c r="H13" t="n">
-        <v>2.413556337356567</v>
+        <v>0.539756178855896</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.052037713090453</v>
+        <v>-21.39290519578826</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.47812661616762</v>
+        <v>-25.75901896854879</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7732271075954033</v>
+        <v>6.399868327485425</v>
       </c>
       <c r="F14" t="n">
-        <v>-13.87813186645508</v>
+        <v>3.38767409324646</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5345630049705505</v>
+        <v>3.137536764144897</v>
       </c>
       <c r="H14" t="n">
-        <v>0.425772875547409</v>
+        <v>-4.873384952545166</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.74343358553365</v>
+        <v>-34.85155020945177</v>
       </c>
       <c r="D15" t="n">
-        <v>-12.66562087154951</v>
+        <v>-10.35765630959052</v>
       </c>
       <c r="E15" t="n">
-        <v>10.2766472348094</v>
+        <v>-4.708384362903586</v>
       </c>
       <c r="F15" t="n">
-        <v>5.411143779754639</v>
+        <v>-5.203151226043701</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.761183738708496</v>
+        <v>0.9888983368873596</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.545782327651977</v>
+        <v>2.413556337356567</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.01473594981556</v>
+        <v>-1.052037713090453</v>
       </c>
       <c r="D16" t="n">
-        <v>-12.33190507719506</v>
+        <v>-12.47812661616762</v>
       </c>
       <c r="E16" t="n">
-        <v>14.17957940750583</v>
+        <v>-0.7732271075954033</v>
       </c>
       <c r="F16" t="n">
-        <v>2.374074935913086</v>
+        <v>-13.87813186645508</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.723265051841736</v>
+        <v>0.5345630049705505</v>
       </c>
       <c r="H16" t="n">
-        <v>1.63484799861908</v>
+        <v>0.425772875547409</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4384320727466777</v>
+        <v>22.74343358553365</v>
       </c>
       <c r="D17" t="n">
-        <v>-30.00794573225216</v>
+        <v>-12.66562087154951</v>
       </c>
       <c r="E17" t="n">
-        <v>5.117792562620172</v>
+        <v>10.2766472348094</v>
       </c>
       <c r="F17" t="n">
-        <v>10.5457181930542</v>
+        <v>5.411143779754639</v>
       </c>
       <c r="G17" t="n">
-        <v>8.709402084350586</v>
+        <v>-7.761183738708496</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.038965702056885</v>
+        <v>-2.545782327651977</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.731652502477468</v>
+        <v>21.01473594981556</v>
       </c>
       <c r="D18" t="n">
-        <v>-23.00902230076561</v>
+        <v>-12.33190507719506</v>
       </c>
       <c r="E18" t="n">
-        <v>-15.75403659865687</v>
+        <v>14.17957940750583</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5905559659004211</v>
+        <v>2.374074935913086</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.791441917419434</v>
+        <v>-1.723265051841736</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2574611008167267</v>
+        <v>1.63484799861908</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-8.11227344761256</v>
+        <v>0.4384320727466777</v>
       </c>
       <c r="D19" t="n">
-        <v>5.674290752974979</v>
+        <v>-30.00794573225216</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.99636612841348</v>
+        <v>5.117792562620172</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.922703266143799</v>
+        <v>10.5457181930542</v>
       </c>
       <c r="G19" t="n">
-        <v>3.348459005355835</v>
+        <v>8.709402084350586</v>
       </c>
       <c r="H19" t="n">
-        <v>1.719536542892456</v>
+        <v>-1.038965702056885</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-38.96337933512132</v>
+        <v>1.731652502477468</v>
       </c>
       <c r="D20" t="n">
-        <v>-34.5937611280813</v>
+        <v>-23.00902230076561</v>
       </c>
       <c r="E20" t="n">
-        <v>3.551583487606536</v>
+        <v>-15.75403659865687</v>
       </c>
       <c r="F20" t="n">
-        <v>-12.29035568237305</v>
+        <v>-0.5905559659004211</v>
       </c>
       <c r="G20" t="n">
-        <v>-13.32346248626709</v>
+        <v>-1.791441917419434</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.019326210021973</v>
+        <v>0.2574611008167267</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-8.11227344761256</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.674290752974979</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-28.99636612841348</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-3.922703266143799</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.348459005355835</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.719536542892456</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-38.96337933512132</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-34.5937611280813</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.551583487606536</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-12.29035568237305</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-13.32346248626709</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-5.019326210021973</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>-22.12481265378448</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>-36.7449983704023</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E23" t="n">
         <v>14.93422636336839</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F23" t="n">
         <v>4.287290096282959</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G23" t="n">
         <v>-8.83603572845459</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>-1.076782584190369</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.603906876942109</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-6.532943116137262</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.020883938264563</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.13570511341095</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4.037551879882812</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.869738817214966</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.676244735717717</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-14.42456348125731</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.205562151395338</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.204765796661377</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.688312530517578</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1.246159672737122</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.344637724069424</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-29.37389576646717</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.180637551482669</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-2.400972843170166</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.221409320831299</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4785034656524658</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-18.19668616345639</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.7442300390208842</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-9.97852061345025</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-4.018577098846436</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.744737386703491</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.383230209350586</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-38.98753061238127</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-23.6091353738096</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-9.86452339668957</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-5.831124305725098</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.37174797058106</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.6757105588912964</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-29.63654207760074</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-38.7297830186655</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21.44472347208752</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.996954381465912</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15.63681697845459</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-8.430303573608398</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-12.67720028352449</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-6.331371307373074</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.991470156336736</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.841510772705078</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-9.827264785766602</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-3.761781692504883</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15.31067461092843</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-20.30018748898473</v>
+      </c>
+      <c r="E31" t="n">
+        <v>31.22906570886048</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.826529026031494</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.439255952835083</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.031126499176025</v>
       </c>
     </row>
   </sheetData>
